--- a/exceltojson.xlsx
+++ b/exceltojson.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dwshome-c.homeoffice.wal-mart.com\dwsuserdata$\vn50jyj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ni\CMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F45B12-3ABD-4733-8426-FE85EC75F749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" xr2:uid="{2ED8DBC3-C50D-4B1B-AFFA-986BD2F6DFB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t>PSE</t>
   </si>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D6419A-5DCA-42A6-B39C-535A2EE54DBF}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +469,46 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exceltojson.xlsx
+++ b/exceltojson.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>PSE</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +509,66 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exceltojson.xlsx
+++ b/exceltojson.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>PSE</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F8" sqref="A4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,106 +469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
